--- a/참고자료/최신/PlusParking_WEBIO_API_CS/에스텍 WEB_IO 연동API_수정.xlsx
+++ b/참고자료/최신/PlusParking_WEBIO_API_CS/에스텍 WEB_IO 연동API_수정.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\STSP_APT\PlusParking_WEBIO_API_CS_250314\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyw\Documents\APTMentsAPI\참고자료\최신\PlusParking_WEBIO_API_CS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="151">
   <si>
     <t>Transaction</t>
   </si>
@@ -492,6 +492,19 @@
   </si>
   <si>
     <t>수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정상 0, 1 - &gt;
+위반 3 -&gt; 블랙리스트
+2 -&gt; 확장용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 입주민
+1 방문객
+2 순찰
+3 블랙리스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -499,7 +512,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -574,6 +587,15 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1159,7 +1181,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1373,6 +1395,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1442,14 +1473,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1802,32 +1830,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" thickTop="1" thickBot="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="76"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="79"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" thickBot="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="78"/>
+      <c r="C2" s="81"/>
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="79" t="s">
+      <c r="E2" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1839,45 +1867,45 @@
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="83"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="86"/>
     </row>
     <row r="4" spans="1:8" ht="18" thickTop="1" thickBot="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="86"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="89"/>
     </row>
     <row r="5" spans="1:8" ht="18" thickTop="1" thickBot="1">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="76"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="79"/>
     </row>
     <row r="6" spans="1:8" ht="17.25" thickBot="1">
       <c r="A6" s="7"/>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="73"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="76"/>
       <c r="E6" s="8" t="s">
         <v>10</v>
       </c>
@@ -2474,32 +2502,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" thickTop="1" thickBot="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="76"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="79"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" thickBot="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="78"/>
+      <c r="C2" s="81"/>
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="79" t="s">
+      <c r="E2" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4" t="s">
         <v>83</v>
       </c>
@@ -2511,43 +2539,43 @@
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="92"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="95"/>
     </row>
     <row r="4" spans="1:8" ht="18" thickTop="1" thickBot="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="86"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="89"/>
     </row>
     <row r="5" spans="1:8" ht="18" thickTop="1" thickBot="1">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="76"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="79"/>
     </row>
     <row r="6" spans="1:8" ht="17.25" thickBot="1">
       <c r="A6" s="33"/>
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="88"/>
-      <c r="D6" s="89"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="92"/>
       <c r="E6" s="34" t="s">
         <v>10</v>
       </c>
@@ -3097,10 +3125,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3113,37 +3141,39 @@
     <col min="6" max="6" width="5.125" customWidth="1"/>
     <col min="7" max="7" width="8.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="40.75" customWidth="1"/>
+    <col min="10" max="10" width="21.625" customWidth="1"/>
+    <col min="11" max="11" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" thickTop="1" thickBot="1">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:11" ht="18" thickTop="1" thickBot="1">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="76"/>
-    </row>
-    <row r="2" spans="1:9" ht="17.25" thickBot="1">
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="79"/>
+    </row>
+    <row r="2" spans="1:11" ht="17.25" thickBot="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="78"/>
+      <c r="C2" s="81"/>
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="79" t="s">
+      <c r="E2" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="F2" s="93"/>
-      <c r="G2" s="80"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="83"/>
       <c r="H2" s="4" t="s">
         <v>83</v>
       </c>
@@ -3151,54 +3181,54 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17.25" thickBot="1">
+    <row r="3" spans="1:11" ht="17.25" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="92"/>
-    </row>
-    <row r="4" spans="1:9" ht="18" thickTop="1" thickBot="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="86"/>
-    </row>
-    <row r="5" spans="1:9" ht="18" thickTop="1" thickBot="1">
-      <c r="A5" s="74" t="s">
+      <c r="B3" s="93"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="95"/>
+    </row>
+    <row r="4" spans="1:11" ht="18" thickTop="1" thickBot="1">
+      <c r="A4" s="87"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="89"/>
+    </row>
+    <row r="5" spans="1:11" ht="18" thickTop="1" thickBot="1">
+      <c r="A5" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="76"/>
-    </row>
-    <row r="6" spans="1:9" ht="17.25" thickBot="1">
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="79"/>
+    </row>
+    <row r="6" spans="1:11" ht="17.25" thickBot="1">
       <c r="A6" s="33"/>
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="88"/>
-      <c r="D6" s="89"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="92"/>
       <c r="E6" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="95" t="s">
+      <c r="F6" s="72" t="s">
         <v>148</v>
       </c>
       <c r="G6" s="34" t="s">
@@ -3211,7 +3241,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17.25" thickBot="1">
+    <row r="7" spans="1:11" ht="17.25" thickBot="1">
       <c r="A7" s="62" t="s">
         <v>119</v>
       </c>
@@ -3232,17 +3262,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="23.25" thickBot="1">
+    <row r="8" spans="1:11" ht="23.25" thickBot="1">
       <c r="A8" s="64"/>
       <c r="B8" s="37" t="s">
         <v>120</v>
       </c>
       <c r="C8" s="38"/>
       <c r="D8" s="39"/>
-      <c r="E8" s="96" t="s">
+      <c r="E8" s="73" t="s">
         <v>147</v>
       </c>
-      <c r="F8" s="94" t="s">
+      <c r="F8" s="71" t="s">
         <v>146</v>
       </c>
       <c r="G8" s="40" t="s">
@@ -3255,17 +3285,17 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="23.25" thickBot="1">
+    <row r="9" spans="1:11" ht="23.25" thickBot="1">
       <c r="A9" s="64"/>
       <c r="B9" s="37" t="s">
         <v>122</v>
       </c>
       <c r="C9" s="38"/>
       <c r="D9" s="39"/>
-      <c r="E9" s="96" t="s">
+      <c r="E9" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="F9" s="94" t="s">
+      <c r="F9" s="71" t="s">
         <v>147</v>
       </c>
       <c r="G9" s="40" t="s">
@@ -3276,7 +3306,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="23.25" thickBot="1">
+    <row r="10" spans="1:11" ht="23.25" thickBot="1">
       <c r="A10" s="64"/>
       <c r="B10" s="37" t="s">
         <v>124</v>
@@ -3297,7 +3327,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="23.25" thickBot="1">
+    <row r="11" spans="1:11" ht="23.25" thickBot="1">
       <c r="A11" s="64"/>
       <c r="B11" s="37" t="s">
         <v>126</v>
@@ -3318,7 +3348,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="17.25" thickBot="1">
+    <row r="12" spans="1:11" ht="17.25" thickBot="1">
       <c r="A12" s="64"/>
       <c r="B12" s="37" t="s">
         <v>128</v>
@@ -3337,7 +3367,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="17.25" thickBot="1">
+    <row r="13" spans="1:11" ht="17.25" thickBot="1">
       <c r="A13" s="64"/>
       <c r="B13" s="37" t="s">
         <v>130</v>
@@ -3356,7 +3386,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="23.25" thickBot="1">
+    <row r="14" spans="1:11" ht="23.25" thickBot="1">
       <c r="A14" s="64"/>
       <c r="B14" s="38"/>
       <c r="C14" s="37" t="s">
@@ -3377,7 +3407,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="23.25" thickBot="1">
+    <row r="15" spans="1:11" ht="66.75" thickBot="1">
       <c r="A15" s="64"/>
       <c r="B15" s="38"/>
       <c r="C15" s="37" t="s">
@@ -3395,8 +3425,14 @@
       <c r="I15" s="63" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="23.25" thickBot="1">
+      <c r="J15" s="97" t="s">
+        <v>149</v>
+      </c>
+      <c r="K15" s="98" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="23.25" thickBot="1">
       <c r="A16" s="64"/>
       <c r="B16" s="38"/>
       <c r="C16" s="37" t="s">
@@ -3552,5 +3588,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>